--- a/results/comparison_CoTPlainLLM/CoTPlainLLM_costs.xlsx
+++ b/results/comparison_CoTPlainLLM/CoTPlainLLM_costs.xlsx
@@ -477,13 +477,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.782039642333984</v>
+        <v>4.134233713150024</v>
       </c>
       <c r="B2" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C2" t="n">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.782037496566772</v>
+        <v>4.13422966003418</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -503,13 +503,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.088991165161133</v>
+        <v>5.136576414108276</v>
       </c>
       <c r="B3" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.088988065719604</v>
+        <v>5.136573791503906</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -529,13 +529,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.738694906234741</v>
+        <v>5.039453983306885</v>
       </c>
       <c r="B4" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.73869252204895</v>
+        <v>5.039451599121094</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.869560241699219</v>
+        <v>4.273945808410645</v>
       </c>
       <c r="B5" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C5" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.86955738067627</v>
+        <v>4.273943424224854</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.084644317626953</v>
+        <v>4.349722146987915</v>
       </c>
       <c r="B6" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C6" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.084641456604004</v>
+        <v>4.349719762802124</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.0699143409729</v>
+        <v>9.195940494537354</v>
       </c>
       <c r="B7" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C7" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10.06991195678711</v>
+        <v>9.195937871932983</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,13 +633,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.484943866729736</v>
+        <v>8.197777986526489</v>
       </c>
       <c r="B8" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C8" t="n">
-        <v>9.9</v>
+        <v>11.2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6.484940767288208</v>
+        <v>8.197775602340698</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -659,13 +659,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.40520167350769</v>
+        <v>7.060674428939819</v>
       </c>
       <c r="B9" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C9" t="n">
-        <v>10.6</v>
+        <v>9.1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.405199289321899</v>
+        <v>7.060672044754028</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.957436561584473</v>
+        <v>6.115735530853271</v>
       </c>
       <c r="B10" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C10" t="n">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>9.957433938980103</v>
+        <v>6.11573314666748</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -711,13 +711,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.426047801971436</v>
+        <v>6.209541320800781</v>
       </c>
       <c r="B11" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C11" t="n">
-        <v>11.3</v>
+        <v>9.1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.426045179367065</v>
+        <v>6.209538698196411</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.777541875839233</v>
+        <v>5.249120950698853</v>
       </c>
       <c r="B12" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C12" t="n">
-        <v>9.199999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>7.777539968490601</v>
+        <v>5.249118566513062</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -763,13 +763,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.794389247894287</v>
+        <v>7.497222661972046</v>
       </c>
       <c r="B13" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C13" t="n">
-        <v>11.3</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>7.794386386871338</v>
+        <v>7.497220277786255</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -789,13 +789,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.932989358901978</v>
+        <v>13.61809158325195</v>
       </c>
       <c r="B14" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.932987213134766</v>
+        <v>13.61808967590332</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -815,13 +815,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.35365629196167</v>
+        <v>5.396770000457764</v>
       </c>
       <c r="B15" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C15" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>4.353653430938721</v>
+        <v>5.396767377853394</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -841,13 +841,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.440952062606812</v>
+        <v>6.398717403411865</v>
       </c>
       <c r="B16" t="n">
-        <v>2079.53515625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C16" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.440949440002441</v>
+        <v>6.398712635040283</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.544068098068237</v>
+        <v>5.351824998855591</v>
       </c>
       <c r="B17" t="n">
-        <v>2079.54296875</v>
+        <v>2153.53125</v>
       </c>
       <c r="C17" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.544065475463867</v>
+        <v>5.351821660995483</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.603177785873413</v>
+        <v>7.194129467010498</v>
       </c>
       <c r="B18" t="n">
-        <v>2079.54296875</v>
+        <v>2153.53125</v>
       </c>
       <c r="C18" t="n">
-        <v>11.7</v>
+        <v>10.9</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.603175163269043</v>
+        <v>7.194126844406128</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.527792930603027</v>
+        <v>8.445894479751587</v>
       </c>
       <c r="B19" t="n">
-        <v>2079.54296875</v>
+        <v>2153.53125</v>
       </c>
       <c r="C19" t="n">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.527791023254395</v>
+        <v>8.445892333984375</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -945,13 +945,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.925588846206665</v>
+        <v>6.768708229064941</v>
       </c>
       <c r="B20" t="n">
-        <v>2079.54296875</v>
+        <v>2153.53125</v>
       </c>
       <c r="C20" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.925586700439453</v>
+        <v>6.76870584487915</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -971,13 +971,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.783555746078491</v>
+        <v>5.438708066940308</v>
       </c>
       <c r="B21" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C21" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4.783553838729858</v>
+        <v>5.438706636428833</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.279569864273071</v>
+        <v>9.660991191864014</v>
       </c>
       <c r="B22" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C22" t="n">
-        <v>11.9</v>
+        <v>10.8</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>6.279567956924438</v>
+        <v>9.660988807678223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.391186237335205</v>
+        <v>11.58311986923218</v>
       </c>
       <c r="B23" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C23" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>8.391183614730835</v>
+        <v>11.58311820030212</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1049,13 +1049,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.019073247909546</v>
+        <v>4.264206886291504</v>
       </c>
       <c r="B24" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C24" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>5.019070625305176</v>
+        <v>4.264204502105713</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1075,13 +1075,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.732515096664429</v>
+        <v>5.25409984588623</v>
       </c>
       <c r="B25" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>11.9</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>4.732512474060059</v>
+        <v>5.25409722328186</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.664849042892456</v>
+        <v>4.754911184310913</v>
       </c>
       <c r="B26" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C26" t="n">
-        <v>12.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.664847135543823</v>
+        <v>4.754908800125122</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.553334951400757</v>
+        <v>6.266167402267456</v>
       </c>
       <c r="B27" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>11.7</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>4.553332328796387</v>
+        <v>6.266165733337402</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.642242193222046</v>
+        <v>4.107651233673096</v>
       </c>
       <c r="B28" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C28" t="n">
         <v>9.1</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.642239570617676</v>
+        <v>4.107649087905884</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.937963247299194</v>
+        <v>5.678453207015991</v>
       </c>
       <c r="B29" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C29" t="n">
         <v>12.1</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.937960624694824</v>
+        <v>5.678450584411621</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.176806211471558</v>
+        <v>4.734951496124268</v>
       </c>
       <c r="B30" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C30" t="n">
         <v>9.1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>4.176803350448608</v>
+        <v>4.734949111938477</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.777897119522095</v>
+        <v>4.281505346298218</v>
       </c>
       <c r="B31" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C31" t="n">
-        <v>12.7</v>
+        <v>9.1</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.777894735336304</v>
+        <v>4.281502723693848</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.303272247314453</v>
+        <v>4.544331789016724</v>
       </c>
       <c r="B32" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C32" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.303269863128662</v>
+        <v>4.544329404830933</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.744629621505737</v>
+        <v>7.359601497650146</v>
       </c>
       <c r="B33" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C33" t="n">
-        <v>11.3</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>6.744626998901367</v>
+        <v>7.359598398208618</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.231465816497803</v>
+        <v>5.367925405502319</v>
       </c>
       <c r="B34" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C34" t="n">
-        <v>9.300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.231463193893433</v>
+        <v>5.367923259735107</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.985752105712891</v>
+        <v>3.368766784667969</v>
       </c>
       <c r="B35" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C35" t="n">
-        <v>11.2</v>
+        <v>9.1</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.9857497215271</v>
+        <v>3.36876392364502</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.771903991699219</v>
+        <v>4.266078233718872</v>
       </c>
       <c r="B36" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C36" t="n">
-        <v>10.2</v>
+        <v>11.5</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.771901845932007</v>
+        <v>4.266075611114502</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.82994556427002</v>
+        <v>9.039860725402832</v>
       </c>
       <c r="B37" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C37" t="n">
-        <v>11.5</v>
+        <v>9.9</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.829943180084229</v>
+        <v>9.03985857963562</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1413,13 +1413,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9.056885004043579</v>
+        <v>6.725923776626587</v>
       </c>
       <c r="B38" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C38" t="n">
-        <v>9.199999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>9.056882619857788</v>
+        <v>6.725921392440796</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1439,13 +1439,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8.633267402648926</v>
+        <v>7.392796516418457</v>
       </c>
       <c r="B39" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C39" t="n">
-        <v>11.1</v>
+        <v>9.9</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>8.633265495300293</v>
+        <v>7.392794847488403</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.620523452758789</v>
+        <v>4.250593185424805</v>
       </c>
       <c r="B40" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C40" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.620521068572998</v>
+        <v>4.250590801239014</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1491,13 +1491,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.897192239761353</v>
+        <v>5.721935272216797</v>
       </c>
       <c r="B41" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C41" t="n">
-        <v>9.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.897189617156982</v>
+        <v>5.721932172775269</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1517,13 +1517,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.64262843132019</v>
+        <v>4.464504241943359</v>
       </c>
       <c r="B42" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C42" t="n">
-        <v>9</v>
+        <v>12.9</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>3.642626047134399</v>
+        <v>4.46450138092041</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14.4165198802948</v>
+        <v>8.789872646331787</v>
       </c>
       <c r="B43" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C43" t="n">
-        <v>10.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.41651749610901</v>
+        <v>8.789870023727417</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8.233566284179688</v>
+        <v>8.946491718292236</v>
       </c>
       <c r="B44" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C44" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>8.233563899993896</v>
+        <v>8.946489572525024</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8.612137079238892</v>
+        <v>16.5197057723999</v>
       </c>
       <c r="B45" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C45" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>8.612134218215942</v>
+        <v>16.51970386505127</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7.088169574737549</v>
+        <v>7.788661956787109</v>
       </c>
       <c r="B46" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C46" t="n">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>7.088166952133179</v>
+        <v>7.788659811019897</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1647,13 +1647,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>21.68769788742065</v>
+        <v>7.569626331329346</v>
       </c>
       <c r="B47" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C47" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>21.68769598007202</v>
+        <v>7.569623470306396</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -1673,13 +1673,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7.537940979003906</v>
+        <v>5.44382643699646</v>
       </c>
       <c r="B48" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C48" t="n">
-        <v>11.3</v>
+        <v>9.1</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>7.537938356399536</v>
+        <v>5.44382381439209</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -1699,13 +1699,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6.361522912979126</v>
+        <v>7.083547592163086</v>
       </c>
       <c r="B49" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C49" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>6.361521005630493</v>
+        <v>7.083545446395874</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -1725,13 +1725,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.903068542480469</v>
+        <v>5.050935506820679</v>
       </c>
       <c r="B50" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C50" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>5.903066873550415</v>
+        <v>5.050932884216309</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -1751,13 +1751,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.285675048828125</v>
+        <v>8.303726673126221</v>
       </c>
       <c r="B51" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>5.285672903060913</v>
+        <v>8.303724765777588</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.346846103668213</v>
+        <v>5.891186952590942</v>
       </c>
       <c r="B52" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C52" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>5.346843719482422</v>
+        <v>5.89118480682373</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -1803,13 +1803,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.328605651855469</v>
+        <v>10.13561797142029</v>
       </c>
       <c r="B53" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>6.328603267669678</v>
+        <v>10.1356155872345</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.471602916717529</v>
+        <v>9.067858457565308</v>
       </c>
       <c r="B54" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C54" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>9.47160005569458</v>
+        <v>9.067856073379517</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>14.17187547683716</v>
+        <v>5.358141422271729</v>
       </c>
       <c r="B55" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C55" t="n">
-        <v>10.3</v>
+        <v>12.4</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>14.1718738079071</v>
+        <v>5.358139276504517</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -1881,13 +1881,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6.58995509147644</v>
+        <v>7.05184268951416</v>
       </c>
       <c r="B56" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C56" t="n">
-        <v>11.7</v>
+        <v>9.1</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>6.589952945709229</v>
+        <v>7.051840543746948</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9.101379632949829</v>
+        <v>29.66759347915649</v>
       </c>
       <c r="B57" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C57" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>9.101377725601196</v>
+        <v>29.66759181022644</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -1933,13 +1933,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.845703840255737</v>
+        <v>4.787078380584717</v>
       </c>
       <c r="B58" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C58" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>4.845701932907104</v>
+        <v>4.787076950073242</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9.041645765304565</v>
+        <v>7.540828943252563</v>
       </c>
       <c r="B59" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C59" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>9.041643619537354</v>
+        <v>7.540826559066772</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6.550629138946533</v>
+        <v>7.067922592163086</v>
       </c>
       <c r="B60" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C60" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>6.550626277923584</v>
+        <v>7.067920684814453</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6.037535905838013</v>
+        <v>5.945929765701294</v>
       </c>
       <c r="B61" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C61" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>6.037533760070801</v>
+        <v>5.945927619934082</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2037,13 +2037,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.432528495788574</v>
+        <v>4.710731506347656</v>
       </c>
       <c r="B62" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C62" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>5.432526350021362</v>
+        <v>4.710729598999023</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2063,13 +2063,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.217766284942627</v>
+        <v>4.407897233963013</v>
       </c>
       <c r="B63" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C63" t="n">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>5.217764616012573</v>
+        <v>4.407895088195801</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4.644629955291748</v>
+        <v>4.68550443649292</v>
       </c>
       <c r="B64" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C64" t="n">
         <v>9</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>4.644628047943115</v>
+        <v>4.685502290725708</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2115,13 +2115,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4.426775932312012</v>
+        <v>7.968134641647339</v>
       </c>
       <c r="B65" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C65" t="n">
-        <v>13.1</v>
+        <v>11.2</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>4.426774501800537</v>
+        <v>7.968132734298706</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>10.66058039665222</v>
+        <v>10.87006783485413</v>
       </c>
       <c r="B66" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C66" t="n">
-        <v>10.1</v>
+        <v>10.7</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>10.66057920455933</v>
+        <v>10.87006592750549</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2167,13 +2167,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7.306503295898438</v>
+        <v>5.990576982498169</v>
       </c>
       <c r="B67" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C67" t="n">
-        <v>10.1</v>
+        <v>9.1</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>7.306501626968384</v>
+        <v>5.990574836730957</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>19.78692579269409</v>
+        <v>11.80241847038269</v>
       </c>
       <c r="B68" t="n">
-        <v>2079.56640625</v>
+        <v>2153.53125</v>
       </c>
       <c r="C68" t="n">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>19.7869234085083</v>
+        <v>11.8024160861969</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
